--- a/src/Tests/Templates/Contracts.xlsx
+++ b/src/Tests/Templates/Contracts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nevolin_DA\Desktop\rx-util-importdata-net-core\src\Tests\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chirkov_ro\Documents\GitHub\rx-util-importdata-net-core\src\Tests\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Договоры!$A$1:$X$22</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -118,67 +118,67 @@
     <t>Digital River GmbH</t>
   </si>
   <si>
+    <t>Сервисное обслуживание</t>
+  </si>
+  <si>
+    <t>Диагностика</t>
+  </si>
+  <si>
+    <t>Отдел продаж</t>
+  </si>
+  <si>
+    <t>Евро</t>
+  </si>
+  <si>
+    <t>Оплачено</t>
+  </si>
+  <si>
+    <t>Зарегистрирован</t>
+  </si>
+  <si>
+    <t>Действующий</t>
+  </si>
+  <si>
+    <t>Итог</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Подробности</t>
+  </si>
+  <si>
+    <t>Загружен</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ТехноСистемы ЗАО</t>
+  </si>
+  <si>
+    <t>Templates\TestDocs\testDoc.txt</t>
+  </si>
+  <si>
+    <t>17.05.2023</t>
+  </si>
+  <si>
+    <t>569</t>
+  </si>
+  <si>
+    <t>Дело</t>
+  </si>
+  <si>
+    <t>Дата помещения</t>
+  </si>
+  <si>
+    <t>123. Тест</t>
+  </si>
+  <si>
+    <t>б/н</t>
+  </si>
+  <si>
     <t>Договор</t>
-  </si>
-  <si>
-    <t>Сервисное обслуживание</t>
-  </si>
-  <si>
-    <t>Диагностика</t>
-  </si>
-  <si>
-    <t>Отдел продаж</t>
-  </si>
-  <si>
-    <t>Евро</t>
-  </si>
-  <si>
-    <t>Оплачено</t>
-  </si>
-  <si>
-    <t>Зарегистрирован</t>
-  </si>
-  <si>
-    <t>Действующий</t>
-  </si>
-  <si>
-    <t>Итог</t>
-  </si>
-  <si>
-    <t>Дата</t>
-  </si>
-  <si>
-    <t>Подробности</t>
-  </si>
-  <si>
-    <t>Загружен</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>ТехноСистемы ЗАО</t>
-  </si>
-  <si>
-    <t>Templates\TestDocs\testDoc.txt</t>
-  </si>
-  <si>
-    <t>17.05.2023</t>
-  </si>
-  <si>
-    <t>569</t>
-  </si>
-  <si>
-    <t>Дело</t>
-  </si>
-  <si>
-    <t>Дата помещения</t>
-  </si>
-  <si>
-    <t>123. Тест</t>
-  </si>
-  <si>
-    <t>б/н</t>
   </si>
 </sst>
 </file>
@@ -833,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -922,19 +922,19 @@
         <v>29</v>
       </c>
       <c r="T1" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="39" t="s">
-        <v>49</v>
-      </c>
       <c r="V1" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="X1" s="27" t="s">
         <v>40</v>
-      </c>
-      <c r="X1" s="27" t="s">
-        <v>41</v>
       </c>
       <c r="Y1"/>
       <c r="Z1"/>
@@ -942,7 +942,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="7">
         <v>40410</v>
@@ -951,63 +951,63 @@
         <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="G2" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="I2" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>45</v>
-      </c>
       <c r="J2" s="11">
-        <v>40410</v>
+        <v>45524</v>
       </c>
       <c r="K2" s="11">
-        <v>42235</v>
+        <v>45888</v>
       </c>
       <c r="L2" s="12">
         <v>10000</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R2" s="35">
         <v>3</v>
       </c>
       <c r="S2" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T2" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U2" s="11">
         <v>40410</v>
       </c>
       <c r="V2" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" t="s">
         <v>42</v>
-      </c>
-      <c r="W2" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" t="s">
-        <v>43</v>
       </c>
       <c r="Y2"/>
       <c r="Z2"/>
@@ -1015,60 +1015,60 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="41">
-        <v>43326</v>
+        <v>45525</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="G3" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="I3" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>45</v>
-      </c>
       <c r="J3" s="11">
-        <v>40410</v>
+        <v>45524</v>
       </c>
       <c r="K3" s="11">
-        <v>42235</v>
+        <v>45888</v>
       </c>
       <c r="L3" s="12">
         <v>10000</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
       <c r="Q3" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R3" s="35">
         <v>4</v>
       </c>
       <c r="S3" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T3" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U3" s="11">
         <v>40410</v>
@@ -1079,60 +1079,60 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="41">
-        <v>43326</v>
+        <v>45526</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="G4" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="I4" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>45</v>
-      </c>
       <c r="J4" s="11">
-        <v>40410</v>
+        <v>45524</v>
       </c>
       <c r="K4" s="11">
-        <v>42235</v>
+        <v>45888</v>
       </c>
       <c r="L4" s="12">
         <v>10000</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R4" s="35">
         <v>5</v>
       </c>
       <c r="S4" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T4" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U4" s="11">
         <v>40410</v>
@@ -1143,60 +1143,60 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="41">
-        <v>43326</v>
+        <v>45527</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="G5" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="I5" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>45</v>
-      </c>
       <c r="J5" s="11">
-        <v>40410</v>
+        <v>45524</v>
       </c>
       <c r="K5" s="11">
-        <v>42235</v>
+        <v>45888</v>
       </c>
       <c r="L5" s="12">
         <v>10000</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R5" s="35">
         <v>6</v>
       </c>
       <c r="S5" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T5" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U5" s="11">
         <v>40410</v>
